--- a/dev-topics-codingexams/dev-topics-liveramp-bitsearch/analysis/Performance.xlsx
+++ b/dev-topics-codingexams/dev-topics-liveramp-bitsearch/analysis/Performance.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="128" windowWidth="22290" windowHeight="9218" activeTab="3"/>
+    <workbookView xWindow="300" yWindow="128" windowWidth="22290" windowHeight="9218" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Rand" sheetId="2" r:id="rId1"/>
     <sheet name="Rand2" sheetId="3" r:id="rId2"/>
     <sheet name="NotRand" sheetId="1" r:id="rId3"/>
     <sheet name="LoadTM" sheetId="4" r:id="rId4"/>
+    <sheet name="SearchTM" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Compare_NotRandom" localSheetId="2">NotRand!$A$1:$J$157</definedName>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="31">
   <si>
     <t>Impl</t>
   </si>
@@ -158,6 +159,21 @@
     <t>Rand
 Factor</t>
   </si>
+  <si>
+    <t>uCount</t>
+  </si>
+  <si>
+    <t>uTime</t>
+  </si>
+  <si>
+    <t>uBS</t>
+  </si>
+  <si>
+    <t>uSS</t>
+  </si>
+  <si>
+    <t>Mean Search Time by Algo vs Population</t>
+  </si>
 </sst>
 </file>
 
@@ -210,7 +226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -232,6 +248,21 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -275,7 +306,7 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Load Time</a:t>
+              <a:t> Load Time - Not Randomized</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -285,8 +316,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.35033875668683423"/>
-          <c:y val="6.8906134110869426E-3"/>
+          <c:x val="0.24876843005314098"/>
+          <c:y val="1.3574092712095198E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -299,7 +330,7 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="9.384177142903645E-2"/>
-          <c:y val="4.8233181378643457E-2"/>
+          <c:y val="4.4891493826429589E-2"/>
           <c:w val="0.75635316108331574"/>
           <c:h val="0.83424150928502361"/>
         </c:manualLayout>
@@ -525,11 +556,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="67766144"/>
-        <c:axId val="67764608"/>
+        <c:axId val="56653312"/>
+        <c:axId val="56655232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="67766144"/>
+        <c:axId val="56653312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000000"/>
@@ -569,12 +600,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67764608"/>
+        <c:crossAx val="56655232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="67764608"/>
+        <c:axId val="56655232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="550"/>
@@ -609,7 +640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67766144"/>
+        <c:crossAx val="56653312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -975,11 +1006,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L75"/>
+  <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -994,12 +1023,12 @@
     <col min="10" max="10" width="9.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A1" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1033,8 +1062,14 @@
       <c r="L3" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -1068,8 +1103,16 @@
       <c r="L4" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M4" s="12">
+        <f>ROUND(AVERAGE(F4:F9),0)</f>
+        <v>23167</v>
+      </c>
+      <c r="N4" s="11">
+        <f>ROUND(AVERAGE(J4:J9),2)</f>
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -1103,8 +1146,10 @@
       <c r="L5" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M5" s="12"/>
+      <c r="N5" s="11"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1138,8 +1183,10 @@
       <c r="L6" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M6" s="12"/>
+      <c r="N6" s="11"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -1173,8 +1220,10 @@
       <c r="L7" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M7" s="12"/>
+      <c r="N7" s="11"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1208,8 +1257,10 @@
       <c r="L8" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M8" s="12"/>
+      <c r="N8" s="11"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1243,8 +1294,10 @@
       <c r="L9" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M9" s="12"/>
+      <c r="N9" s="11"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1278,8 +1331,16 @@
       <c r="L10" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M10" s="12">
+        <f t="shared" ref="M5:M68" si="0">ROUND(AVERAGE(F10:F15),0)</f>
+        <v>23167</v>
+      </c>
+      <c r="N10" s="11">
+        <f t="shared" ref="N5:N68" si="1">ROUND(AVERAGE(J10:J15),2)</f>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -1313,8 +1374,10 @@
       <c r="L11" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M11" s="12"/>
+      <c r="N11" s="11"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1348,8 +1411,10 @@
       <c r="L12" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M12" s="12"/>
+      <c r="N12" s="11"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1383,8 +1448,10 @@
       <c r="L13" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M13" s="12"/>
+      <c r="N13" s="11"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1418,8 +1485,10 @@
       <c r="L14" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M14" s="12"/>
+      <c r="N14" s="11"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1453,8 +1522,10 @@
       <c r="L15" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M15" s="12"/>
+      <c r="N15" s="11"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>10</v>
       </c>
@@ -1488,8 +1559,16 @@
       <c r="L16" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M16" s="12">
+        <f t="shared" si="0"/>
+        <v>115833</v>
+      </c>
+      <c r="N16" s="11">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>10</v>
       </c>
@@ -1523,8 +1602,10 @@
       <c r="L17" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M17" s="12"/>
+      <c r="N17" s="11"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -1558,8 +1639,10 @@
       <c r="L18" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M18" s="12"/>
+      <c r="N18" s="11"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>10</v>
       </c>
@@ -1593,8 +1676,10 @@
       <c r="L19" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M19" s="12"/>
+      <c r="N19" s="11"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>10</v>
       </c>
@@ -1628,8 +1713,10 @@
       <c r="L20" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M20" s="12"/>
+      <c r="N20" s="11"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>10</v>
       </c>
@@ -1663,8 +1750,10 @@
       <c r="L21" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M21" s="12"/>
+      <c r="N21" s="11"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>12</v>
       </c>
@@ -1698,8 +1787,16 @@
       <c r="L22" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M22" s="12">
+        <f t="shared" si="0"/>
+        <v>115833</v>
+      </c>
+      <c r="N22" s="11">
+        <f t="shared" si="1"/>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -1733,8 +1830,10 @@
       <c r="L23" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M23" s="12"/>
+      <c r="N23" s="11"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>12</v>
       </c>
@@ -1768,8 +1867,10 @@
       <c r="L24" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M24" s="12"/>
+      <c r="N24" s="11"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -1803,8 +1904,10 @@
       <c r="L25" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M25" s="12"/>
+      <c r="N25" s="11"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>12</v>
       </c>
@@ -1838,8 +1941,10 @@
       <c r="L26" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M26" s="12"/>
+      <c r="N26" s="11"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -1873,8 +1978,10 @@
       <c r="L27" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M27" s="12"/>
+      <c r="N27" s="11"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
         <v>10</v>
       </c>
@@ -1908,8 +2015,16 @@
       <c r="L28" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M28" s="12">
+        <f t="shared" si="0"/>
+        <v>231667</v>
+      </c>
+      <c r="N28" s="11">
+        <f t="shared" si="1"/>
+        <v>4.33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
         <v>10</v>
       </c>
@@ -1943,8 +2058,10 @@
       <c r="L29" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M29" s="12"/>
+      <c r="N29" s="11"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
         <v>10</v>
       </c>
@@ -1978,8 +2095,10 @@
       <c r="L30" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M30" s="12"/>
+      <c r="N30" s="11"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
         <v>10</v>
       </c>
@@ -2013,8 +2132,10 @@
       <c r="L31" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M31" s="12"/>
+      <c r="N31" s="11"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
         <v>10</v>
       </c>
@@ -2048,8 +2169,10 @@
       <c r="L32" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M32" s="12"/>
+      <c r="N32" s="11"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
         <v>10</v>
       </c>
@@ -2083,8 +2206,10 @@
       <c r="L33" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M33" s="12"/>
+      <c r="N33" s="11"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
         <v>12</v>
       </c>
@@ -2118,8 +2243,16 @@
       <c r="L34" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M34" s="12">
+        <f t="shared" si="0"/>
+        <v>231667</v>
+      </c>
+      <c r="N34" s="11">
+        <f t="shared" si="1"/>
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
         <v>12</v>
       </c>
@@ -2153,8 +2286,10 @@
       <c r="L35" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M35" s="12"/>
+      <c r="N35" s="11"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
         <v>12</v>
       </c>
@@ -2188,8 +2323,10 @@
       <c r="L36" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M36" s="12"/>
+      <c r="N36" s="11"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
         <v>12</v>
       </c>
@@ -2223,8 +2360,10 @@
       <c r="L37" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M37" s="12"/>
+      <c r="N37" s="11"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
         <v>12</v>
       </c>
@@ -2258,8 +2397,10 @@
       <c r="L38" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M38" s="12"/>
+      <c r="N38" s="11"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
         <v>12</v>
       </c>
@@ -2293,8 +2434,10 @@
       <c r="L39" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M39" s="12"/>
+      <c r="N39" s="11"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
         <v>10</v>
       </c>
@@ -2328,8 +2471,16 @@
       <c r="L40" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M40" s="12">
+        <f t="shared" si="0"/>
+        <v>463333</v>
+      </c>
+      <c r="N40" s="11">
+        <f t="shared" si="1"/>
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
         <v>10</v>
       </c>
@@ -2363,8 +2514,10 @@
       <c r="L41" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M41" s="12"/>
+      <c r="N41" s="11"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
         <v>10</v>
       </c>
@@ -2398,8 +2551,10 @@
       <c r="L42" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M42" s="12"/>
+      <c r="N42" s="11"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
         <v>10</v>
       </c>
@@ -2433,8 +2588,10 @@
       <c r="L43" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M43" s="12"/>
+      <c r="N43" s="11"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
         <v>10</v>
       </c>
@@ -2468,8 +2625,10 @@
       <c r="L44" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M44" s="12"/>
+      <c r="N44" s="11"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
         <v>10</v>
       </c>
@@ -2503,8 +2662,10 @@
       <c r="L45" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M45" s="12"/>
+      <c r="N45" s="11"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -2538,8 +2699,16 @@
       <c r="L46" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M46" s="12">
+        <f t="shared" si="0"/>
+        <v>463333</v>
+      </c>
+      <c r="N46" s="11">
+        <f t="shared" si="1"/>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
         <v>12</v>
       </c>
@@ -2573,8 +2742,10 @@
       <c r="L47" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M47" s="12"/>
+      <c r="N47" s="11"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
         <v>12</v>
       </c>
@@ -2608,8 +2779,10 @@
       <c r="L48" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M48" s="12"/>
+      <c r="N48" s="11"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
         <v>12</v>
       </c>
@@ -2643,8 +2816,10 @@
       <c r="L49" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M49" s="12"/>
+      <c r="N49" s="11"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
         <v>12</v>
       </c>
@@ -2678,8 +2853,10 @@
       <c r="L50" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M50" s="12"/>
+      <c r="N50" s="11"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
         <v>12</v>
       </c>
@@ -2713,8 +2890,10 @@
       <c r="L51" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M51" s="12"/>
+      <c r="N51" s="11"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -2748,8 +2927,16 @@
       <c r="L52" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M52" s="12">
+        <f t="shared" si="0"/>
+        <v>579167</v>
+      </c>
+      <c r="N52" s="11">
+        <f t="shared" si="1"/>
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -2783,8 +2970,10 @@
       <c r="L53" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M53" s="12"/>
+      <c r="N53" s="11"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
         <v>10</v>
       </c>
@@ -2818,8 +3007,10 @@
       <c r="L54" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M54" s="12"/>
+      <c r="N54" s="11"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
         <v>10</v>
       </c>
@@ -2853,8 +3044,10 @@
       <c r="L55" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M55" s="12"/>
+      <c r="N55" s="11"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
         <v>10</v>
       </c>
@@ -2888,8 +3081,10 @@
       <c r="L56" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M56" s="12"/>
+      <c r="N56" s="11"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
         <v>10</v>
       </c>
@@ -2923,8 +3118,10 @@
       <c r="L57" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M57" s="12"/>
+      <c r="N57" s="11"/>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
         <v>12</v>
       </c>
@@ -2958,8 +3155,16 @@
       <c r="L58" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M58" s="12">
+        <f t="shared" si="0"/>
+        <v>579167</v>
+      </c>
+      <c r="N58" s="11">
+        <f t="shared" si="1"/>
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
         <v>12</v>
       </c>
@@ -2993,8 +3198,10 @@
       <c r="L59" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M59" s="12"/>
+      <c r="N59" s="11"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
         <v>12</v>
       </c>
@@ -3028,8 +3235,10 @@
       <c r="L60" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M60" s="12"/>
+      <c r="N60" s="11"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
         <v>12</v>
       </c>
@@ -3063,8 +3272,10 @@
       <c r="L61" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M61" s="12"/>
+      <c r="N61" s="11"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
         <v>12</v>
       </c>
@@ -3098,8 +3309,10 @@
       <c r="L62" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M62" s="12"/>
+      <c r="N62" s="11"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
         <v>12</v>
       </c>
@@ -3133,8 +3346,10 @@
       <c r="L63" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M63" s="12"/>
+      <c r="N63" s="11"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
         <v>10</v>
       </c>
@@ -3168,8 +3383,16 @@
       <c r="L64" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M64" s="12">
+        <f t="shared" si="0"/>
+        <v>810833</v>
+      </c>
+      <c r="N64" s="11">
+        <f t="shared" si="1"/>
+        <v>15.17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
         <v>10</v>
       </c>
@@ -3203,8 +3426,10 @@
       <c r="L65" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M65" s="12"/>
+      <c r="N65" s="11"/>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -3238,8 +3463,10 @@
       <c r="L66" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M66" s="12"/>
+      <c r="N66" s="11"/>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -3273,8 +3500,10 @@
       <c r="L67" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M67" s="12"/>
+      <c r="N67" s="11"/>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -3308,8 +3537,10 @@
       <c r="L68" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M68" s="12"/>
+      <c r="N68" s="11"/>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -3343,8 +3574,10 @@
       <c r="L69" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M69" s="12"/>
+      <c r="N69" s="11"/>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
         <v>12</v>
       </c>
@@ -3378,8 +3611,16 @@
       <c r="L70" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M70" s="12">
+        <f t="shared" ref="M69:M75" si="2">ROUND(AVERAGE(F70:F75),0)</f>
+        <v>810833</v>
+      </c>
+      <c r="N70" s="11">
+        <f t="shared" ref="N69:N75" si="3">ROUND(AVERAGE(J70:J75),2)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
         <v>12</v>
       </c>
@@ -3413,8 +3654,10 @@
       <c r="L71" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M71" s="12"/>
+      <c r="N71" s="11"/>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
         <v>12</v>
       </c>
@@ -3448,8 +3691,10 @@
       <c r="L72" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M72" s="12"/>
+      <c r="N72" s="11"/>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
         <v>12</v>
       </c>
@@ -3483,8 +3728,10 @@
       <c r="L73" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M73" s="12"/>
+      <c r="N73" s="11"/>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
         <v>12</v>
       </c>
@@ -3518,8 +3765,10 @@
       <c r="L74" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="M74" s="12"/>
+      <c r="N74" s="11"/>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
         <v>12</v>
       </c>
@@ -3553,9 +3802,12 @@
       <c r="L75" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="M75" s="12"/>
+      <c r="N75" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8298,8 +8550,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U24" sqref="U24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="X11" sqref="X11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -8363,7 +8615,7 @@
         <v>8</v>
       </c>
       <c r="F4">
-        <f>C4-D4</f>
+        <f t="shared" ref="F4:F9" si="0">C4-D4</f>
         <v>2</v>
       </c>
       <c r="G4" s="10">
@@ -8371,11 +8623,11 @@
         <v>0.25</v>
       </c>
       <c r="H4">
-        <f>B4-D4</f>
+        <f t="shared" ref="H4:H9" si="1">B4-D4</f>
         <v>74</v>
       </c>
       <c r="I4" s="10">
-        <f>H4/D4</f>
+        <f t="shared" ref="I4:I9" si="2">H4/D4</f>
         <v>9.25</v>
       </c>
     </row>
@@ -8397,19 +8649,19 @@
         <v>17</v>
       </c>
       <c r="F5">
-        <f>C5-D5</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" ref="G5:G9" si="0">F5/D5</f>
+        <f t="shared" ref="G5:G9" si="3">F5/D5</f>
         <v>1</v>
       </c>
       <c r="H5">
-        <f>B5-D5</f>
+        <f t="shared" si="1"/>
         <v>64</v>
       </c>
       <c r="I5" s="10">
-        <f>H5/D5</f>
+        <f t="shared" si="2"/>
         <v>3.7647058823529411</v>
       </c>
     </row>
@@ -8431,19 +8683,19 @@
         <v>28</v>
       </c>
       <c r="F6">
-        <f>C6-D6</f>
+        <f t="shared" si="0"/>
         <v>46</v>
       </c>
       <c r="G6" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1.6428571428571428</v>
       </c>
       <c r="H6">
-        <f>B6-D6</f>
+        <f t="shared" si="1"/>
         <v>94</v>
       </c>
       <c r="I6" s="10">
-        <f>H6/D6</f>
+        <f t="shared" si="2"/>
         <v>3.3571428571428572</v>
       </c>
     </row>
@@ -8465,19 +8717,19 @@
         <v>376</v>
       </c>
       <c r="F7">
-        <f>C7-D7</f>
+        <f t="shared" si="0"/>
         <v>128</v>
       </c>
       <c r="G7" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>0.34042553191489361</v>
       </c>
       <c r="H7">
-        <f>B7-D7</f>
+        <f t="shared" si="1"/>
         <v>-226</v>
       </c>
       <c r="I7" s="10">
-        <f>H7/D7</f>
+        <f t="shared" si="2"/>
         <v>-0.60106382978723405</v>
       </c>
     </row>
@@ -8499,19 +8751,19 @@
         <v>68</v>
       </c>
       <c r="F8">
-        <f>C8-D8</f>
+        <f t="shared" si="0"/>
         <v>181</v>
       </c>
       <c r="G8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2.6617647058823528</v>
       </c>
       <c r="H8">
-        <f>B8-D8</f>
+        <f t="shared" si="1"/>
         <v>103</v>
       </c>
       <c r="I8" s="10">
-        <f>H8/D8</f>
+        <f t="shared" si="2"/>
         <v>1.5147058823529411</v>
       </c>
     </row>
@@ -8533,19 +8785,19 @@
         <v>87</v>
       </c>
       <c r="F9">
-        <f>C9-D9</f>
+        <f t="shared" si="0"/>
         <v>282</v>
       </c>
       <c r="G9" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>3.2413793103448274</v>
       </c>
       <c r="H9">
-        <f>B9-D9</f>
+        <f t="shared" si="1"/>
         <v>189</v>
       </c>
       <c r="I9" s="10">
-        <f>H9/D9</f>
+        <f t="shared" si="2"/>
         <v>2.1724137931034484</v>
       </c>
     </row>
@@ -8883,4 +9135,736 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I109"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="5.19921875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="12">
+        <f>Rand!E4</f>
+        <v>139000</v>
+      </c>
+      <c r="B3" s="3" t="str">
+        <f>Rand!L4</f>
+        <v>BS</v>
+      </c>
+      <c r="C3" s="12">
+        <f>Rand!M4</f>
+        <v>23167</v>
+      </c>
+      <c r="D3" s="11">
+        <f>Rand!N4</f>
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A4" s="12"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="11"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5" s="12"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="11"/>
+    </row>
+    <row r="6" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+      <c r="A6" s="12"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="11"/>
+      <c r="F6" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="G7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8" s="15">
+        <f>Rand!E4</f>
+        <v>139000</v>
+      </c>
+      <c r="B8" s="16" t="str">
+        <f>Rand!L4</f>
+        <v>BS</v>
+      </c>
+      <c r="C8" s="12">
+        <f>Rand!M4</f>
+        <v>23167</v>
+      </c>
+      <c r="D8" s="11">
+        <f>Rand!N4</f>
+        <v>1.17</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="12">
+        <f>A8</f>
+        <v>139000</v>
+      </c>
+      <c r="G8" s="12">
+        <f>C8</f>
+        <v>23167</v>
+      </c>
+      <c r="H8" s="11">
+        <f>D8</f>
+        <v>1.17</v>
+      </c>
+      <c r="I8" s="11">
+        <f>D9</f>
+        <v>0.17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A9" s="12">
+        <f>Rand!E10</f>
+        <v>139000</v>
+      </c>
+      <c r="B9" s="3" t="str">
+        <f>Rand!L10</f>
+        <v>SS</v>
+      </c>
+      <c r="C9" s="12">
+        <f>Rand!M10</f>
+        <v>23167</v>
+      </c>
+      <c r="D9" s="11">
+        <f>Rand!N10</f>
+        <v>0.17</v>
+      </c>
+      <c r="F9" s="12">
+        <f>A10</f>
+        <v>695000</v>
+      </c>
+      <c r="G9" s="12">
+        <f>C10</f>
+        <v>115833</v>
+      </c>
+      <c r="H9" s="11">
+        <f>D10</f>
+        <v>2.5</v>
+      </c>
+      <c r="I9" s="11">
+        <f>D11</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A10" s="12">
+        <f>Rand!E16</f>
+        <v>695000</v>
+      </c>
+      <c r="B10" s="3" t="str">
+        <f>Rand!L16</f>
+        <v>BS</v>
+      </c>
+      <c r="C10" s="12">
+        <f>Rand!M16</f>
+        <v>115833</v>
+      </c>
+      <c r="D10" s="11">
+        <f>Rand!N16</f>
+        <v>2.5</v>
+      </c>
+      <c r="F10" s="12">
+        <f>A12</f>
+        <v>1390000</v>
+      </c>
+      <c r="G10" s="12">
+        <f>C12</f>
+        <v>231667</v>
+      </c>
+      <c r="H10" s="11">
+        <f>D12</f>
+        <v>4.33</v>
+      </c>
+      <c r="I10" s="11">
+        <f>D13</f>
+        <v>3.17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11" s="12">
+        <f>Rand!E22</f>
+        <v>695000</v>
+      </c>
+      <c r="B11" s="3" t="str">
+        <f>Rand!L22</f>
+        <v>SS</v>
+      </c>
+      <c r="C11" s="12">
+        <f>Rand!M22</f>
+        <v>115833</v>
+      </c>
+      <c r="D11" s="11">
+        <f>Rand!N22</f>
+        <v>1.5</v>
+      </c>
+      <c r="F11" s="12">
+        <f>A14</f>
+        <v>2780000</v>
+      </c>
+      <c r="G11" s="12">
+        <f>C14</f>
+        <v>463333</v>
+      </c>
+      <c r="H11" s="11">
+        <f>D14</f>
+        <v>8.67</v>
+      </c>
+      <c r="I11" s="11">
+        <f>D15</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A12" s="12">
+        <f>Rand!E28</f>
+        <v>1390000</v>
+      </c>
+      <c r="B12" s="3" t="str">
+        <f>Rand!L28</f>
+        <v>BS</v>
+      </c>
+      <c r="C12" s="12">
+        <f>Rand!M28</f>
+        <v>231667</v>
+      </c>
+      <c r="D12" s="11">
+        <f>Rand!N28</f>
+        <v>4.33</v>
+      </c>
+      <c r="F12" s="12">
+        <f>A16</f>
+        <v>3475000</v>
+      </c>
+      <c r="G12" s="12">
+        <f>C16</f>
+        <v>579167</v>
+      </c>
+      <c r="H12" s="11">
+        <f>D16</f>
+        <v>11.17</v>
+      </c>
+      <c r="I12" s="11">
+        <f>D17</f>
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A13" s="12">
+        <f>Rand!E34</f>
+        <v>1390000</v>
+      </c>
+      <c r="B13" s="3" t="str">
+        <f>Rand!L34</f>
+        <v>SS</v>
+      </c>
+      <c r="C13" s="12">
+        <f>Rand!M34</f>
+        <v>231667</v>
+      </c>
+      <c r="D13" s="11">
+        <f>Rand!N34</f>
+        <v>3.17</v>
+      </c>
+      <c r="F13" s="12">
+        <f>A18</f>
+        <v>4865000</v>
+      </c>
+      <c r="G13" s="12">
+        <f>C18</f>
+        <v>810833</v>
+      </c>
+      <c r="H13" s="11">
+        <f>D18</f>
+        <v>15.17</v>
+      </c>
+      <c r="I13" s="11">
+        <f>D19</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14" s="12">
+        <f>Rand!E40</f>
+        <v>2780000</v>
+      </c>
+      <c r="B14" s="3" t="str">
+        <f>Rand!L40</f>
+        <v>BS</v>
+      </c>
+      <c r="C14" s="12">
+        <f>Rand!M40</f>
+        <v>463333</v>
+      </c>
+      <c r="D14" s="11">
+        <f>Rand!N40</f>
+        <v>8.67</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A15" s="12">
+        <f>Rand!E46</f>
+        <v>2780000</v>
+      </c>
+      <c r="B15" s="3" t="str">
+        <f>Rand!L46</f>
+        <v>SS</v>
+      </c>
+      <c r="C15" s="12">
+        <f>Rand!M46</f>
+        <v>463333</v>
+      </c>
+      <c r="D15" s="11">
+        <f>Rand!N46</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16" s="12">
+        <f>Rand!E52</f>
+        <v>3475000</v>
+      </c>
+      <c r="B16" s="3" t="str">
+        <f>Rand!L52</f>
+        <v>BS</v>
+      </c>
+      <c r="C16" s="12">
+        <f>Rand!M52</f>
+        <v>579167</v>
+      </c>
+      <c r="D16" s="11">
+        <f>Rand!N52</f>
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A17" s="12">
+        <f>Rand!E58</f>
+        <v>3475000</v>
+      </c>
+      <c r="B17" s="3" t="str">
+        <f>Rand!L58</f>
+        <v>SS</v>
+      </c>
+      <c r="C17" s="12">
+        <f>Rand!M58</f>
+        <v>579167</v>
+      </c>
+      <c r="D17" s="11">
+        <f>Rand!N58</f>
+        <v>7.67</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A18" s="12">
+        <f>Rand!E64</f>
+        <v>4865000</v>
+      </c>
+      <c r="B18" s="3" t="str">
+        <f>Rand!L64</f>
+        <v>BS</v>
+      </c>
+      <c r="C18" s="12">
+        <f>Rand!M64</f>
+        <v>810833</v>
+      </c>
+      <c r="D18" s="11">
+        <f>Rand!N64</f>
+        <v>15.17</v>
+      </c>
+      <c r="F18" s="12"/>
+      <c r="G18" s="12"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19" s="12">
+        <f>Rand!E70</f>
+        <v>4865000</v>
+      </c>
+      <c r="B19" s="3" t="str">
+        <f>Rand!L70</f>
+        <v>SS</v>
+      </c>
+      <c r="C19" s="12">
+        <f>Rand!M70</f>
+        <v>810833</v>
+      </c>
+      <c r="D19" s="11">
+        <f>Rand!N70</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F20" s="12"/>
+      <c r="G20" s="12"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="F21" s="12"/>
+      <c r="G21" s="12"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="11"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A50" s="12"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="11"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A55" s="12"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="11"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A56" s="12"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="11"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A60" s="12"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="11"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A61" s="12"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="11"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A62" s="12"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="11"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A65" s="12"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="11"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A66" s="12"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="11"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A67" s="12"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="11"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A68" s="12"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="11"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A70" s="12"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="11"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A71" s="12"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="11"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A72" s="12"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="11"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A73" s="12"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="11"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A74" s="12"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="11"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A75" s="12"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="11"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A76" s="12"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="11"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A77" s="12"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="11"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A78" s="12"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="11"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A79" s="12"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="11"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A80" s="12"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="11"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A81" s="12"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="11"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A82" s="12"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="11"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A83" s="12"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="11"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A84" s="12"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="11"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A85" s="12"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="11"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A86" s="12"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="11"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A87" s="12"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="11"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A88" s="12"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="11"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A89" s="12"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="11"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A90" s="12"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="11"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A91" s="12"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="11"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A92" s="12"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="11"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A93" s="12"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="11"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A94" s="12"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="11"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A95" s="12"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="11"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A96" s="12"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="11"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A97" s="12"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="11"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A98" s="12"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="11"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A99" s="12"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="11"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A100" s="12"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="11"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A101" s="12"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="11"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A102" s="12"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="11"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A103" s="12"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="11"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A104" s="12"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="11"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A105" s="12"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="11"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A106" s="12"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="11"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A107" s="12"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="11"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A108" s="12"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="11"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A109" s="12"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/dev-topics-codingexams/dev-topics-liveramp-bitsearch/analysis/Performance.xlsx
+++ b/dev-topics-codingexams/dev-topics-liveramp-bitsearch/analysis/Performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="128" windowWidth="22290" windowHeight="9218" activeTab="4"/>
+    <workbookView xWindow="300" yWindow="128" windowWidth="22290" windowHeight="9218"/>
   </bookViews>
   <sheets>
     <sheet name="Rand" sheetId="2" r:id="rId1"/>
@@ -343,7 +343,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>LoadTM!$B$3</c:f>
+              <c:f>LoadTM!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -354,7 +354,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>LoadTM!$A$4:$A$9</c:f>
+              <c:f>LoadTM!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -381,7 +381,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>LoadTM!$B$4:$B$9</c:f>
+              <c:f>LoadTM!$B$3:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -413,7 +413,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>LoadTM!$C$3</c:f>
+              <c:f>LoadTM!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -424,7 +424,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>LoadTM!$A$4:$A$9</c:f>
+              <c:f>LoadTM!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -451,7 +451,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>LoadTM!$C$4:$C$9</c:f>
+              <c:f>LoadTM!$C$3:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -483,7 +483,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>LoadTM!$D$3</c:f>
+              <c:f>LoadTM!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -494,7 +494,7 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>LoadTM!$A$4:$A$9</c:f>
+              <c:f>LoadTM!$A$3:$A$8</c:f>
               <c:numCache>
                 <c:formatCode>#,##0</c:formatCode>
                 <c:ptCount val="6"/>
@@ -521,7 +521,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>LoadTM!$D$4:$D$9</c:f>
+              <c:f>LoadTM!$D$3:$D$8</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -556,11 +556,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="56653312"/>
-        <c:axId val="56655232"/>
+        <c:axId val="137201536"/>
+        <c:axId val="137207808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="56653312"/>
+        <c:axId val="137201536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000000"/>
@@ -600,12 +600,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56655232"/>
+        <c:crossAx val="137207808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="56655232"/>
+        <c:axId val="137207808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="550"/>
@@ -624,7 +624,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US" sz="1200"/>
-                  <a:t>Timer in NS</a:t>
+                  <a:t>Time in NS</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -640,7 +640,330 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="56653312"/>
+        <c:crossAx val="137201536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" baseline="0"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Population</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Search Time - Randomized</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.24876843005314098"/>
+          <c:y val="1.3574092712095198E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.384177142903645E-2"/>
+          <c:y val="4.4891493826429589E-2"/>
+          <c:w val="0.75635316108331574"/>
+          <c:h val="0.83424150928502361"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SearchTM!$H$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uBS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SearchTM!$F$8:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>139000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>695000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1390000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2780000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3475000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4865000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SearchTM!$H$8:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.33</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.67</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11.17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15.17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>SearchTM!$I$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>uSS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>SearchTM!$F$8:$F$13</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>139000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>695000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1390000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2780000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3475000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4865000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>SearchTM!$I$8:$I$13</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.17</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.67</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="66441600"/>
+        <c:axId val="66443520"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="66441600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="5000000"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>IP</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" baseline="0"/>
+                  <a:t> Access and Counts Population Size</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t>	</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66443520"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="66443520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200"/>
+                  <a:t>Time in NS</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>	</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="66441600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -678,19 +1001,56 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>21430</xdr:colOff>
-      <xdr:row>2</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>538162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>23812</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>635000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>637382</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -1008,7 +1368,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -1332,11 +1694,11 @@
         <v>14</v>
       </c>
       <c r="M10" s="12">
-        <f t="shared" ref="M5:M68" si="0">ROUND(AVERAGE(F10:F15),0)</f>
+        <f t="shared" ref="M10:M64" si="0">ROUND(AVERAGE(F10:F15),0)</f>
         <v>23167</v>
       </c>
       <c r="N10" s="11">
-        <f t="shared" ref="N5:N68" si="1">ROUND(AVERAGE(J10:J15),2)</f>
+        <f t="shared" ref="N10:N64" si="1">ROUND(AVERAGE(J10:J15),2)</f>
         <v>0.17</v>
       </c>
     </row>
@@ -3612,11 +3974,11 @@
         <v>14</v>
       </c>
       <c r="M70" s="12">
-        <f t="shared" ref="M69:M75" si="2">ROUND(AVERAGE(F70:F75),0)</f>
+        <f t="shared" ref="M70" si="2">ROUND(AVERAGE(F70:F75),0)</f>
         <v>810833</v>
       </c>
       <c r="N70" s="11">
-        <f t="shared" ref="N69:N75" si="3">ROUND(AVERAGE(J70:J75),2)</f>
+        <f t="shared" ref="N70" si="3">ROUND(AVERAGE(J70:J75),2)</f>
         <v>11</v>
       </c>
     </row>
@@ -3815,7 +4177,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6183,7 +6545,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J75"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8548,11 +8910,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I132"/>
+  <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="X11" sqref="X11"/>
-    </sheetView>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8571,235 +8931,238 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
-      <c r="A3" s="2" t="s">
+    <row r="2" spans="1:9" ht="42.75" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H2" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3" s="9">
+        <f>Rand!E4</f>
+        <v>139000</v>
+      </c>
+      <c r="B3" s="7">
+        <f>Rand!H4</f>
+        <v>82</v>
+      </c>
+      <c r="C3" s="7">
+        <f>Rand!H10</f>
+        <v>10</v>
+      </c>
+      <c r="D3">
+        <f>NotRand!H10</f>
+        <v>8</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:F8" si="0">C3-D3</f>
+        <v>2</v>
+      </c>
+      <c r="G3" s="10">
+        <f>F3/D3</f>
+        <v>0.25</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H8" si="1">B3-D3</f>
+        <v>74</v>
+      </c>
+      <c r="I3" s="10">
+        <f t="shared" ref="I3:I8" si="2">H3/D3</f>
+        <v>9.25</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A4" s="9">
-        <f>Rand!E4</f>
-        <v>139000</v>
+        <f>Rand!E16</f>
+        <v>695000</v>
       </c>
       <c r="B4" s="7">
-        <f>Rand!H4</f>
-        <v>82</v>
+        <f>Rand!H16</f>
+        <v>81</v>
       </c>
       <c r="C4" s="7">
-        <f>Rand!H10</f>
-        <v>10</v>
+        <f>Rand!H22</f>
+        <v>34</v>
       </c>
       <c r="D4">
-        <f>NotRand!H10</f>
-        <v>8</v>
+        <f>NotRand!H22</f>
+        <v>17</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F9" si="0">C4-D4</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
       <c r="G4" s="10">
-        <f>F4/D4</f>
-        <v>0.25</v>
+        <f t="shared" ref="G4:G8" si="3">F4/D4</f>
+        <v>1</v>
       </c>
       <c r="H4">
-        <f t="shared" ref="H4:H9" si="1">B4-D4</f>
-        <v>74</v>
+        <f t="shared" si="1"/>
+        <v>64</v>
       </c>
       <c r="I4" s="10">
-        <f t="shared" ref="I4:I9" si="2">H4/D4</f>
-        <v>9.25</v>
+        <f t="shared" si="2"/>
+        <v>3.7647058823529411</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A5" s="9">
-        <f>Rand!E16</f>
-        <v>695000</v>
+        <f>Rand!E28</f>
+        <v>1390000</v>
       </c>
       <c r="B5" s="7">
-        <f>Rand!H16</f>
-        <v>81</v>
+        <f>Rand!H28</f>
+        <v>122</v>
       </c>
       <c r="C5" s="7">
-        <f>Rand!H22</f>
-        <v>34</v>
+        <f>Rand!H34</f>
+        <v>74</v>
       </c>
       <c r="D5">
-        <f>NotRand!H22</f>
-        <v>17</v>
+        <f>NotRand!H34</f>
+        <v>28</v>
       </c>
       <c r="F5">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="G5" s="10">
-        <f t="shared" ref="G5:G9" si="3">F5/D5</f>
-        <v>1</v>
+        <f t="shared" si="3"/>
+        <v>1.6428571428571428</v>
       </c>
       <c r="H5">
         <f t="shared" si="1"/>
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="I5" s="10">
         <f t="shared" si="2"/>
-        <v>3.7647058823529411</v>
+        <v>3.3571428571428572</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6" s="9">
-        <f>Rand!E28</f>
-        <v>1390000</v>
+        <f>Rand!E40</f>
+        <v>2780000</v>
       </c>
       <c r="B6" s="7">
-        <f>Rand!H28</f>
-        <v>122</v>
+        <f>Rand!H40</f>
+        <v>150</v>
       </c>
       <c r="C6" s="7">
-        <f>Rand!H34</f>
-        <v>74</v>
+        <f>Rand!H46</f>
+        <v>504</v>
       </c>
       <c r="D6">
-        <f>NotRand!H34</f>
-        <v>28</v>
+        <f>NotRand!H46</f>
+        <v>376</v>
       </c>
       <c r="F6">
         <f t="shared" si="0"/>
-        <v>46</v>
+        <v>128</v>
       </c>
       <c r="G6" s="10">
         <f t="shared" si="3"/>
-        <v>1.6428571428571428</v>
+        <v>0.34042553191489361</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>94</v>
+        <v>-226</v>
       </c>
       <c r="I6" s="10">
         <f t="shared" si="2"/>
-        <v>3.3571428571428572</v>
+        <v>-0.60106382978723405</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A7" s="9">
-        <f>Rand!E40</f>
-        <v>2780000</v>
+        <f>Rand!E52</f>
+        <v>3475000</v>
       </c>
       <c r="B7" s="7">
-        <f>Rand!H40</f>
-        <v>150</v>
+        <f>Rand!H52</f>
+        <v>171</v>
       </c>
       <c r="C7" s="7">
-        <f>Rand!H46</f>
-        <v>504</v>
+        <f>Rand!H58</f>
+        <v>249</v>
       </c>
       <c r="D7">
-        <f>NotRand!H46</f>
-        <v>376</v>
+        <f>NotRand!H58</f>
+        <v>68</v>
       </c>
       <c r="F7">
         <f t="shared" si="0"/>
-        <v>128</v>
+        <v>181</v>
       </c>
       <c r="G7" s="10">
         <f t="shared" si="3"/>
-        <v>0.34042553191489361</v>
+        <v>2.6617647058823528</v>
       </c>
       <c r="H7">
         <f t="shared" si="1"/>
-        <v>-226</v>
+        <v>103</v>
       </c>
       <c r="I7" s="10">
         <f t="shared" si="2"/>
-        <v>-0.60106382978723405</v>
+        <v>1.5147058823529411</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A8" s="9">
-        <f>Rand!E52</f>
-        <v>3475000</v>
+        <f>Rand!E64</f>
+        <v>4865000</v>
       </c>
       <c r="B8" s="7">
-        <f>Rand!H52</f>
-        <v>171</v>
+        <f>Rand!H64</f>
+        <v>276</v>
       </c>
       <c r="C8" s="7">
-        <f>Rand!H58</f>
-        <v>249</v>
+        <f>Rand!H70</f>
+        <v>369</v>
       </c>
       <c r="D8">
-        <f>NotRand!H58</f>
-        <v>68</v>
+        <f>NotRand!H70</f>
+        <v>87</v>
       </c>
       <c r="F8">
         <f t="shared" si="0"/>
-        <v>181</v>
+        <v>282</v>
       </c>
       <c r="G8" s="10">
         <f t="shared" si="3"/>
-        <v>2.6617647058823528</v>
+        <v>3.2413793103448274</v>
       </c>
       <c r="H8">
         <f t="shared" si="1"/>
-        <v>103</v>
+        <v>189</v>
       </c>
       <c r="I8" s="10">
         <f t="shared" si="2"/>
-        <v>1.5147058823529411</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9" s="9">
-        <f>Rand!E64</f>
-        <v>4865000</v>
-      </c>
-      <c r="B9" s="7">
-        <f>Rand!H64</f>
-        <v>276</v>
-      </c>
-      <c r="C9" s="7">
-        <f>Rand!H70</f>
-        <v>369</v>
-      </c>
-      <c r="D9">
-        <f>NotRand!H70</f>
-        <v>87</v>
-      </c>
-      <c r="F9">
-        <f t="shared" si="0"/>
-        <v>282</v>
-      </c>
-      <c r="G9" s="10">
-        <f t="shared" si="3"/>
-        <v>3.2413793103448274</v>
-      </c>
-      <c r="H9">
-        <f t="shared" si="1"/>
-        <v>189</v>
-      </c>
-      <c r="I9" s="10">
-        <f t="shared" si="2"/>
         <v>2.1724137931034484</v>
       </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B11" s="5"/>
@@ -8813,8 +9176,8 @@
     <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B14" s="5"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B15" s="5"/>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B16" s="5"/>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B17" s="5"/>
@@ -8828,8 +9191,8 @@
     <row r="20" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B20" s="5"/>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B21" s="5"/>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B22" s="5"/>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B23" s="5"/>
@@ -8843,8 +9206,8 @@
     <row r="26" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B26" s="5"/>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B27" s="5"/>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B28" s="5"/>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B29" s="5"/>
@@ -8858,8 +9221,8 @@
     <row r="32" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B32" s="5"/>
     </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B33" s="5"/>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B34" s="5"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B35" s="5"/>
@@ -8873,8 +9236,8 @@
     <row r="38" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B38" s="5"/>
     </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B39" s="5"/>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B42" s="5"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B43" s="5"/>
@@ -8882,8 +9245,8 @@
     <row r="44" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B44" s="5"/>
     </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B45" s="5"/>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B46" s="5"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B47" s="5"/>
@@ -8897,8 +9260,8 @@
     <row r="50" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B50" s="5"/>
     </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B51" s="5"/>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B52" s="5"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B53" s="5"/>
@@ -8912,8 +9275,8 @@
     <row r="56" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B56" s="5"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B57" s="5"/>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B58" s="5"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B59" s="5"/>
@@ -8927,8 +9290,8 @@
     <row r="62" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B62" s="5"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B63" s="5"/>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B64" s="5"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B65" s="5"/>
@@ -8942,8 +9305,8 @@
     <row r="68" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B68" s="5"/>
     </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B69" s="5"/>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.45">
+      <c r="B70" s="5"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B71" s="5"/>
@@ -9127,9 +9490,6 @@
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.45">
       <c r="B131" s="5"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.45">
-      <c r="B132" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9141,8 +9501,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView topLeftCell="F6" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -9151,7 +9511,7 @@
     <col min="2" max="2" width="4.3984375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.73046875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.73046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.73046875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.73046875" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="5.19921875" bestFit="1" customWidth="1"/>
   </cols>
@@ -9253,7 +9613,7 @@
         <v>1.17</v>
       </c>
       <c r="E8" s="17"/>
-      <c r="F8" s="12">
+      <c r="F8" s="9">
         <f>A8</f>
         <v>139000</v>
       </c>
@@ -9287,7 +9647,7 @@
         <f>Rand!N10</f>
         <v>0.17</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="9">
         <f>A10</f>
         <v>695000</v>
       </c>
@@ -9321,7 +9681,7 @@
         <f>Rand!N16</f>
         <v>2.5</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="9">
         <f>A12</f>
         <v>1390000</v>
       </c>
@@ -9355,7 +9715,7 @@
         <f>Rand!N22</f>
         <v>1.5</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="9">
         <f>A14</f>
         <v>2780000</v>
       </c>
@@ -9389,7 +9749,7 @@
         <f>Rand!N28</f>
         <v>4.33</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="9">
         <f>A16</f>
         <v>3475000</v>
       </c>
@@ -9423,7 +9783,7 @@
         <f>Rand!N34</f>
         <v>3.17</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="9">
         <f>A18</f>
         <v>4865000</v>
       </c>
@@ -9866,5 +10226,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/dev-topics-codingexams/dev-topics-liveramp-bitsearch/analysis/Performance.xlsx
+++ b/dev-topics-codingexams/dev-topics-liveramp-bitsearch/analysis/Performance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="300" yWindow="128" windowWidth="22290" windowHeight="9218" activeTab="3"/>
+    <workbookView xWindow="300" yWindow="128" windowWidth="22290" windowHeight="9218"/>
   </bookViews>
   <sheets>
     <sheet name="Rand" sheetId="2" r:id="rId1"/>
@@ -556,11 +556,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="157303168"/>
-        <c:axId val="157305088"/>
+        <c:axId val="131565440"/>
+        <c:axId val="131575808"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="157303168"/>
+        <c:axId val="131565440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000000"/>
@@ -600,12 +600,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157305088"/>
+        <c:crossAx val="131575808"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="157305088"/>
+        <c:axId val="131575808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="550"/>
@@ -640,7 +640,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="157303168"/>
+        <c:crossAx val="131565440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -881,11 +881,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="119817728"/>
-        <c:axId val="119819648"/>
+        <c:axId val="131814912"/>
+        <c:axId val="131816832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="119817728"/>
+        <c:axId val="131814912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="5000000"/>
@@ -925,12 +925,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119819648"/>
+        <c:crossAx val="131816832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="119819648"/>
+        <c:axId val="131816832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -963,7 +963,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="119817728"/>
+        <c:crossAx val="131814912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1368,7 +1368,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N75"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
@@ -8906,7 +8906,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
